--- a/APINP.xlsx
+++ b/APINP.xlsx
@@ -5,14 +5,149 @@
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
-  <x:sheets/>
+  <x:sheets>
+    <x:sheet name="API_ApiIntegration" sheetId="2" r:id="rId2"/>
+  </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+  <x:si>
+    <x:t>TestScenarioID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestCaseID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Precondition</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Steps</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserAction</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExpectedResult</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Approved/Rejected</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReasonToReject</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POST Request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate if the request type selected from the dropdown is POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the request type is POST</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Validate in the API URL text box, a valid "ENDPOINT" is input as a URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the ENDPOINT's URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Authorization tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Authorization Tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input the Username and Password, if necessary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input the Username and Password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Header tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Header Tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input the data, if necessary</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input the data for the fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Body tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Body tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Test tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Test tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select the appropriate test(s) by selecting the corresponding CheckBox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to select appropriate Test(s) by selecting the CheckBoxes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save to save the configuration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Configuration Saved success message should be displayed</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20,7 +155,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -28,13 +163,26 @@
       <x:name val="Calibri"/>
       <x:family val="2"/>
     </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
   </x:fonts>
-  <x:fills count="2">
+  <x:fills count="3">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF5F9EA0"/>
+        <x:bgColor rgb="FF5F9EA0"/>
+      </x:patternFill>
     </x:fill>
   </x:fills>
   <x:borders count="1">
@@ -56,13 +204,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -71,6 +226,25 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
+</file>
+
+<file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
+  <x:autoFilter ref="A1:J12"/>
+  <x:tableColumns count="10">
+    <x:tableColumn id="1" name="TestScenarioID"/>
+    <x:tableColumn id="2" name="TestCaseID"/>
+    <x:tableColumn id="3" name="Description"/>
+    <x:tableColumn id="4" name="Precondition"/>
+    <x:tableColumn id="5" name="TestData"/>
+    <x:tableColumn id="6" name="Steps"/>
+    <x:tableColumn id="7" name="UserAction"/>
+    <x:tableColumn id="8" name="ExpectedResult"/>
+    <x:tableColumn id="9" name="Approved/Rejected"/>
+    <x:tableColumn id="10" name="ReasonToReject"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,4 +528,274 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:J12"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="15.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="65.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="70.840624999999989" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
+    <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:10" s="1" customFormat="1">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s"/>
+      <x:c r="J2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="0" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="C3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s"/>
+      <x:c r="J3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="0" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s"/>
+      <x:c r="J4" s="0" t="s"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="0" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s"/>
+      <x:c r="J5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s"/>
+      <x:c r="J6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="0" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="0" t="s"/>
+      <x:c r="D7" s="0" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s"/>
+      <x:c r="J7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="0" t="s"/>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s"/>
+      <x:c r="J8" s="0" t="s"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="0" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
+      <x:c r="D9" s="0" t="s"/>
+      <x:c r="E9" s="0" t="s"/>
+      <x:c r="F9" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s"/>
+      <x:c r="J9" s="0" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="0" t="s"/>
+      <x:c r="B10" s="0" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s"/>
+      <x:c r="J10" s="0" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:10">
+      <x:c r="A11" s="0" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="F11" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s"/>
+      <x:c r="J11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="0" t="s"/>
+      <x:c r="B12" s="0" t="s"/>
+      <x:c r="C12" s="0" t="s"/>
+      <x:c r="D12" s="0" t="s"/>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId5"/>
+  </x:tableParts>
+</x:worksheet>
 </file>